--- a/RMI/RMI/media/Reporte/DIANA_ROCIO_QUIÑONES.xlsx
+++ b/RMI/RMI/media/Reporte/DIANA_ROCIO_QUIÑONES.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -197,9 +197,6 @@
     <t>Seguimiento etapa productiva</t>
   </si>
   <si>
-    <t>Se realizó seguimiento de etapa productiva a: Yonny Alexis Cortes, ficha 752566; Juan Sebastian Camayo, ficha 901494; Mabel Patricia Camacho Rojas, 596161,</t>
-  </si>
-  <si>
     <t>Se elaboro proyecto formativo (cod. 686378) para el programa Tecnico en  EJECUCION DE EVENTOS DEPORTIVOS Y RECREATIVOS.</t>
   </si>
   <si>
@@ -230,6 +227,12 @@
   </si>
   <si>
     <t>Por favor  registrar seguimientos</t>
+  </si>
+  <si>
+    <t>Se realizó seguimiento de etapa productiva a: Juan Sebastian Camayo, ficha 901494; Mabel Patricia Camacho Rojas, ficha 596161, Sandra Jimena Orozco Lagos,  ficha 957568; Alex Yovan Bolaños,  ficha 752567; Erika Constanza Pino Melo,  ficha 752567; Cesar Augusto Meneses Meza,  ficha 752567; Yuly Eugenia Ruiz Acosto,  ficha 579662.</t>
+  </si>
+  <si>
+    <t>14:00  16:00</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1458,67 +1461,132 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1567,9 +1635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,6 +1656,9 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,101 +1668,38 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2123,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AK996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2147,34 +2153,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
@@ -2190,38 +2196,38 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="129" t="s">
-        <v>65</v>
+      <c r="A3" s="145"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="154" t="s">
+        <v>64</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="125" t="s">
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125" t="s">
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125" t="s">
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="125"/>
+      <c r="X3" s="150"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="2"/>
@@ -2237,36 +2243,36 @@
       <c r="AK3" s="1"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="74" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="130" t="s">
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="106"/>
+      <c r="X4" s="131"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="2"/>
@@ -2282,36 +2288,36 @@
       <c r="AK4" s="1"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120"/>
-      <c r="B5" s="128" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="125" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="133" t="s">
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="108"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="133"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="2"/>
@@ -2327,34 +2333,34 @@
       <c r="AK5" s="1"/>
     </row>
     <row r="6" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="74">
+      <c r="A6" s="145"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155">
         <v>1061709022</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74">
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155">
         <v>3146500534</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="110"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="135"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="2"/>
@@ -2370,30 +2376,30 @@
       <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="120"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="113"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="138"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -2423,15 +2429,15 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2448,32 +2454,32 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="116"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="141"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2489,56 +2495,56 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="78" t="s">
+      <c r="P10" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="78" t="s">
+      <c r="Q10" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="121" t="s">
+      <c r="R10" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="94" t="s">
+      <c r="S10" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="95"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="167"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -2554,13 +2560,13 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="44" t="s">
         <v>13</v>
       </c>
@@ -2582,16 +2588,16 @@
       <c r="N11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="98"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="170"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2658,25 +2664,25 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102">
+      <c r="A13" s="171">
         <v>1363614</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="80">
         <v>60</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="80">
         <v>16</v>
       </c>
       <c r="H13" s="71" t="s">
@@ -2698,16 +2704,16 @@
         <v>50</v>
       </c>
       <c r="N13" s="71"/>
-      <c r="O13" s="88" t="s">
+      <c r="O13" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="99">
+      <c r="P13" s="84">
         <v>0</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="84">
         <v>60</v>
       </c>
-      <c r="R13" s="99">
+      <c r="R13" s="84">
         <f>SUM(P13:Q17)</f>
         <v>60</v>
       </c>
@@ -2743,12 +2749,12 @@
       <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -2758,9 +2764,9 @@
       <c r="M14" s="72"/>
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
       <c r="S14" s="62">
         <v>6</v>
       </c>
@@ -2799,12 +2805,12 @@
       <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
@@ -2814,9 +2820,9 @@
       <c r="M15" s="72"/>
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
       <c r="S15" s="66">
         <f t="shared" ref="S15:S17" si="2">+X14+2</f>
         <v>13</v>
@@ -2856,12 +2862,12 @@
       <c r="AK15" s="4"/>
     </row>
     <row r="16" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="72"/>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
@@ -2871,9 +2877,9 @@
       <c r="M16" s="72"/>
       <c r="N16" s="72"/>
       <c r="O16" s="72"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="66">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2913,12 +2919,12 @@
       <c r="AK16" s="4"/>
     </row>
     <row r="17" spans="1:37" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
       <c r="I17" s="73"/>
@@ -2928,9 +2934,9 @@
       <c r="M17" s="73"/>
       <c r="N17" s="73"/>
       <c r="O17" s="73"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="66">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2958,25 +2964,25 @@
       <c r="AK17" s="4"/>
     </row>
     <row r="18" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="168">
+      <c r="A18" s="74">
         <v>1364375</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="80">
         <v>60</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="80">
         <v>35</v>
       </c>
       <c r="H18" s="71" t="s">
@@ -2998,16 +3004,16 @@
         <v>51</v>
       </c>
       <c r="N18" s="71"/>
-      <c r="O18" s="88" t="s">
+      <c r="O18" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="99">
+      <c r="P18" s="84">
         <v>0</v>
       </c>
-      <c r="Q18" s="99">
+      <c r="Q18" s="84">
         <v>60</v>
       </c>
-      <c r="R18" s="99">
+      <c r="R18" s="84">
         <f>SUM(P18:Q22)</f>
         <v>60</v>
       </c>
@@ -3043,12 +3049,12 @@
       <c r="AK18" s="4"/>
     </row>
     <row r="19" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="169"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="72"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
@@ -3058,9 +3064,9 @@
       <c r="M19" s="72"/>
       <c r="N19" s="72"/>
       <c r="O19" s="72"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
       <c r="S19" s="62">
         <v>6</v>
       </c>
@@ -3099,12 +3105,12 @@
       <c r="AK19" s="4"/>
     </row>
     <row r="20" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="72"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
@@ -3114,9 +3120,9 @@
       <c r="M20" s="72"/>
       <c r="N20" s="72"/>
       <c r="O20" s="72"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
       <c r="S20" s="66">
         <f t="shared" ref="S20:S22" si="7">+X19+2</f>
         <v>13</v>
@@ -3156,12 +3162,12 @@
       <c r="AK20" s="4"/>
     </row>
     <row r="21" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="169"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -3171,9 +3177,9 @@
       <c r="M21" s="72"/>
       <c r="N21" s="72"/>
       <c r="O21" s="72"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="66">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -3213,12 +3219,12 @@
       <c r="AK21" s="4"/>
     </row>
     <row r="22" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="73"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
@@ -3228,9 +3234,9 @@
       <c r="M22" s="73"/>
       <c r="N22" s="73"/>
       <c r="O22" s="73"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="66">
         <f t="shared" si="7"/>
         <v>27</v>
@@ -3265,25 +3271,25 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="165"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="40">
         <f>SUM(Q13:Q22)</f>
         <v>120</v>
       </c>
-      <c r="R23" s="162"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="29"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -3300,31 +3306,31 @@
       <c r="AK23" s="8"/>
     </row>
     <row r="24" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -3341,48 +3347,48 @@
       <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="154" t="s">
+      <c r="A25" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="89" t="s">
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="138"/>
-      <c r="G25" s="121" t="s">
+      <c r="F25" s="112"/>
+      <c r="G25" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="80" t="s">
+      <c r="O25" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="78" t="s">
+      <c r="P25" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="78" t="s">
+      <c r="Q25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="121" t="s">
+      <c r="R25" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="89" t="s">
+      <c r="S25" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -3398,13 +3404,13 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="43" t="s">
         <v>13</v>
       </c>
@@ -3426,10 +3432,10 @@
       <c r="N26" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="141"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="167"/>
-      <c r="R26" s="141"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="105"/>
       <c r="S26" s="43" t="s">
         <v>13</v>
       </c>
@@ -3463,43 +3469,43 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
-        <v>56</v>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="90" t="s">
+        <v>66</v>
       </c>
-      <c r="F27" s="153"/>
-      <c r="G27" s="158" t="s">
+      <c r="F27" s="91"/>
+      <c r="G27" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75" t="s">
-        <v>61</v>
+      <c r="K27" s="87" t="s">
+        <v>60</v>
       </c>
-      <c r="K27" s="75" t="s">
-        <v>61</v>
+      <c r="L27" s="87" t="s">
+        <v>60</v>
       </c>
-      <c r="L27" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="161" t="s">
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="142">
-        <v>42774</v>
+      <c r="P27" s="117">
+        <v>42772</v>
       </c>
-      <c r="Q27" s="142">
+      <c r="Q27" s="117">
         <v>42776</v>
       </c>
-      <c r="R27" s="143">
-        <v>6</v>
+      <c r="R27" s="118">
+        <v>16</v>
       </c>
       <c r="S27" s="54"/>
       <c r="T27" s="55"/>
@@ -3519,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="Y27" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
@@ -3534,38 +3540,38 @@
       <c r="AJ27" s="49"/>
       <c r="AK27" s="49"/>
     </row>
-    <row r="28" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="151"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="62">
+    <row r="28" spans="1:37" s="47" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="92"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="66">
         <v>6</v>
       </c>
-      <c r="T28" s="63">
+      <c r="T28" s="64">
         <f>S28+1</f>
         <v>7</v>
       </c>
       <c r="U28" s="64">
-        <f t="shared" ref="U28:X28" si="14">T28+1</f>
+        <f>T28+1</f>
         <v>8</v>
       </c>
       <c r="V28" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U28:X28" si="14">U28+1</f>
         <v>9</v>
       </c>
       <c r="W28" s="64">
@@ -3590,25 +3596,25 @@
       <c r="AJ28" s="49"/>
       <c r="AK28" s="49"/>
     </row>
-    <row r="29" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="151"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="144"/>
+    <row r="29" spans="1:37" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="119"/>
       <c r="S29" s="62">
         <v>13</v>
       </c>
@@ -3646,25 +3652,35 @@
       <c r="AJ29" s="49"/>
       <c r="AK29" s="49"/>
     </row>
-    <row r="30" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="151"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="144"/>
+    <row r="30" spans="1:37" s="47" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="92"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="119"/>
       <c r="S30" s="62">
         <v>20</v>
       </c>
@@ -3702,25 +3718,25 @@
       <c r="AJ30" s="49"/>
       <c r="AK30" s="49"/>
     </row>
-    <row r="31" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="145"/>
+    <row r="31" spans="1:37" s="47" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="120"/>
       <c r="S31" s="68">
         <v>27</v>
       </c>
@@ -3747,46 +3763,46 @@
       <c r="AK31" s="49"/>
     </row>
     <row r="32" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="150" t="s">
+      <c r="A32" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="150" t="s">
-        <v>57</v>
+      <c r="I32" s="96" t="s">
+        <v>58</v>
       </c>
-      <c r="F32" s="153"/>
-      <c r="G32" s="158" t="s">
-        <v>36</v>
+      <c r="J32" s="96" t="s">
+        <v>58</v>
       </c>
-      <c r="H32" s="135" t="s">
-        <v>59</v>
+      <c r="K32" s="96" t="s">
+        <v>58</v>
       </c>
-      <c r="I32" s="135" t="s">
-        <v>59</v>
+      <c r="L32" s="96" t="s">
+        <v>58</v>
       </c>
-      <c r="J32" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="L32" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="161" t="s">
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="P32" s="142">
+      <c r="P32" s="117">
         <v>42767</v>
       </c>
-      <c r="Q32" s="142">
+      <c r="Q32" s="117">
         <v>42773</v>
       </c>
-      <c r="R32" s="143">
+      <c r="R32" s="118">
         <v>20</v>
       </c>
       <c r="S32" s="54"/>
@@ -3818,24 +3834,24 @@
       <c r="AK32" s="49"/>
     </row>
     <row r="33" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="151"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="144"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="119"/>
       <c r="S33" s="58">
         <v>6</v>
       </c>
@@ -3861,24 +3877,24 @@
       <c r="AK33" s="49"/>
     </row>
     <row r="34" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="144"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="119"/>
       <c r="S34" s="51"/>
       <c r="T34" s="52"/>
       <c r="U34" s="52"/>
@@ -3900,24 +3916,24 @@
       <c r="AK34" s="49"/>
     </row>
     <row r="35" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="151"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="144"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="119"/>
       <c r="S35" s="35"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
@@ -3939,24 +3955,24 @@
       <c r="AK35" s="49"/>
     </row>
     <row r="36" spans="1:37" s="47" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="151"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="145"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="120"/>
       <c r="S36" s="37"/>
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
@@ -3978,34 +3994,34 @@
       <c r="AK36" s="49"/>
     </row>
     <row r="37" spans="1:37" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="146"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="147" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="149"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="124"/>
       <c r="Q37" s="59">
         <f>SUM(R27:R36)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
-      <c r="R37" s="134"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
       <c r="X37" s="41"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -26079,69 +26095,32 @@
       <c r="AK996" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="N32:N36"/>
-    <mergeCell ref="E32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="K32:K36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="N27:N31"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q27:Q31"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="P27:P31"/>
-    <mergeCell ref="S25:X25"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="H37:P37"/>
-    <mergeCell ref="A27:D31"/>
-    <mergeCell ref="E27:F31"/>
-    <mergeCell ref="A32:D36"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="R32:R36"/>
-    <mergeCell ref="Q32:Q36"/>
-    <mergeCell ref="O32:O36"/>
-    <mergeCell ref="P32:P36"/>
-    <mergeCell ref="M32:M36"/>
+  <mergeCells count="117">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="A24:W24"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="H13:H17"/>
     <mergeCell ref="O13:O17"/>
     <mergeCell ref="W4:X6"/>
     <mergeCell ref="G7:X7"/>
@@ -26166,30 +26145,74 @@
     <mergeCell ref="G6:N6"/>
     <mergeCell ref="O3:V3"/>
     <mergeCell ref="O4:V4"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="A24:W24"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q27:Q31"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="P27:P31"/>
+    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="H37:P37"/>
+    <mergeCell ref="A27:D31"/>
+    <mergeCell ref="E27:F31"/>
+    <mergeCell ref="A32:D36"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="R32:R36"/>
+    <mergeCell ref="Q32:Q36"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="P32:P36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="N32:N36"/>
+    <mergeCell ref="E32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="I13:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O4" r:id="rId1"/>
